--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Hbegf-Cd44.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Hbegf-Cd44.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.94366262579964</v>
+        <v>5.600099</v>
       </c>
       <c r="H2">
-        <v>4.94366262579964</v>
+        <v>16.800297</v>
       </c>
       <c r="I2">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="J2">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N2">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O2">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P2">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q2">
-        <v>40.92469798490048</v>
+        <v>58.54934678384434</v>
       </c>
       <c r="R2">
-        <v>40.92469798490048</v>
+        <v>526.944121054599</v>
       </c>
       <c r="S2">
-        <v>0.001566315362906515</v>
+        <v>0.001946738176437222</v>
       </c>
       <c r="T2">
-        <v>0.001566315362906515</v>
+        <v>0.001946738176437223</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.94366262579964</v>
+        <v>5.600099</v>
       </c>
       <c r="H3">
-        <v>4.94366262579964</v>
+        <v>16.800297</v>
       </c>
       <c r="I3">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="J3">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N3">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O3">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P3">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q3">
-        <v>811.2950374972442</v>
+        <v>937.6118876123658</v>
       </c>
       <c r="R3">
-        <v>811.2950374972442</v>
+        <v>8438.506988511292</v>
       </c>
       <c r="S3">
-        <v>0.03105078213529157</v>
+        <v>0.03117515320939522</v>
       </c>
       <c r="T3">
-        <v>0.03105078213529157</v>
+        <v>0.03117515320939524</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.94366262579964</v>
+        <v>5.600099</v>
       </c>
       <c r="H4">
-        <v>4.94366262579964</v>
+        <v>16.800297</v>
       </c>
       <c r="I4">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="J4">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N4">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O4">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P4">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q4">
-        <v>751.0440349036941</v>
+        <v>1273.998318872122</v>
       </c>
       <c r="R4">
-        <v>751.0440349036941</v>
+        <v>11465.9848698491</v>
       </c>
       <c r="S4">
-        <v>0.02874478903968908</v>
+        <v>0.04235984345344657</v>
       </c>
       <c r="T4">
-        <v>0.02874478903968908</v>
+        <v>0.04235984345344659</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.94366262579964</v>
+        <v>5.600099</v>
       </c>
       <c r="H5">
-        <v>4.94366262579964</v>
+        <v>16.800297</v>
       </c>
       <c r="I5">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="J5">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N5">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O5">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P5">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q5">
-        <v>719.9810095448415</v>
+        <v>828.7115560441096</v>
       </c>
       <c r="R5">
-        <v>719.9810095448415</v>
+        <v>7458.404004396986</v>
       </c>
       <c r="S5">
-        <v>0.02755591053273279</v>
+        <v>0.02755426852773907</v>
       </c>
       <c r="T5">
-        <v>0.02755591053273279</v>
+        <v>0.02755426852773908</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.94366262579964</v>
+        <v>5.600099</v>
       </c>
       <c r="H6">
-        <v>4.94366262579964</v>
+        <v>16.800297</v>
       </c>
       <c r="I6">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="J6">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N6">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O6">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P6">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q6">
-        <v>3206.781471878983</v>
+        <v>3728.46381488196</v>
       </c>
       <c r="R6">
-        <v>3206.781471878983</v>
+        <v>33556.17433393765</v>
       </c>
       <c r="S6">
-        <v>0.1227334918083265</v>
+        <v>0.1239696639945826</v>
       </c>
       <c r="T6">
-        <v>0.1227334918083265</v>
+        <v>0.1239696639945826</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.94366262579964</v>
+        <v>5.600099</v>
       </c>
       <c r="H7">
-        <v>4.94366262579964</v>
+        <v>16.800297</v>
       </c>
       <c r="I7">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="J7">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>53.1169883938852</v>
+        <v>55.51027300000001</v>
       </c>
       <c r="N7">
-        <v>53.1169883938852</v>
+        <v>166.530819</v>
       </c>
       <c r="O7">
-        <v>0.04533225522245957</v>
+        <v>0.043549230010055</v>
       </c>
       <c r="P7">
-        <v>0.04533225522245957</v>
+        <v>0.04354923001005501</v>
       </c>
       <c r="Q7">
-        <v>262.5924703178835</v>
+        <v>310.8630243170271</v>
       </c>
       <c r="R7">
-        <v>262.5924703178835</v>
+        <v>2797.767218853243</v>
       </c>
       <c r="S7">
-        <v>0.01005022982928861</v>
+        <v>0.01033604899666745</v>
       </c>
       <c r="T7">
-        <v>0.01005022982928861</v>
+        <v>0.01033604899666746</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.4037948097371</v>
+        <v>5.606595666666666</v>
       </c>
       <c r="H8">
-        <v>5.4037948097371</v>
+        <v>16.819787</v>
       </c>
       <c r="I8">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="J8">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N8">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O8">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P8">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q8">
-        <v>44.73377074858393</v>
+        <v>58.61726979549211</v>
       </c>
       <c r="R8">
-        <v>44.73377074858393</v>
+        <v>527.555428159429</v>
       </c>
       <c r="S8">
-        <v>0.001712100414035969</v>
+        <v>0.001948996584551005</v>
       </c>
       <c r="T8">
-        <v>0.001712100414035969</v>
+        <v>0.001948996584551006</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.4037948097371</v>
+        <v>5.606595666666666</v>
       </c>
       <c r="H9">
-        <v>5.4037948097371</v>
+        <v>16.819787</v>
       </c>
       <c r="I9">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="J9">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N9">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O9">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P9">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q9">
-        <v>886.8064519439062</v>
+        <v>938.6996097930846</v>
       </c>
       <c r="R9">
-        <v>886.8064519439062</v>
+        <v>8448.296488137761</v>
       </c>
       <c r="S9">
-        <v>0.03394083861331974</v>
+        <v>0.03121131945907826</v>
       </c>
       <c r="T9">
-        <v>0.03394083861331974</v>
+        <v>0.03121131945907827</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.4037948097371</v>
+        <v>5.606595666666666</v>
       </c>
       <c r="H10">
-        <v>5.4037948097371</v>
+        <v>16.819787</v>
       </c>
       <c r="I10">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="J10">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N10">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O10">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P10">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q10">
-        <v>820.9475777162542</v>
+        <v>1275.476282460195</v>
       </c>
       <c r="R10">
-        <v>820.9475777162542</v>
+        <v>11479.28654214176</v>
       </c>
       <c r="S10">
-        <v>0.03142021484415815</v>
+        <v>0.04240898504593792</v>
       </c>
       <c r="T10">
-        <v>0.03142021484415815</v>
+        <v>0.04240898504593793</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.4037948097371</v>
+        <v>5.606595666666666</v>
       </c>
       <c r="H11">
-        <v>5.4037948097371</v>
+        <v>16.819787</v>
       </c>
       <c r="I11">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="J11">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N11">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O11">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P11">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q11">
-        <v>786.9933563393963</v>
+        <v>829.6729431093084</v>
       </c>
       <c r="R11">
-        <v>786.9933563393963</v>
+        <v>7467.056487983775</v>
       </c>
       <c r="S11">
-        <v>0.030120681281376</v>
+        <v>0.02758623419439399</v>
       </c>
       <c r="T11">
-        <v>0.030120681281376</v>
+        <v>0.027586234194394</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.4037948097371</v>
+        <v>5.606595666666666</v>
       </c>
       <c r="H12">
-        <v>5.4037948097371</v>
+        <v>16.819787</v>
       </c>
       <c r="I12">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="J12">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N12">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O12">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P12">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q12">
-        <v>3505.25316660293</v>
+        <v>3732.789200305328</v>
       </c>
       <c r="R12">
-        <v>3505.25316660293</v>
+        <v>33595.10280274795</v>
       </c>
       <c r="S12">
-        <v>0.1341569310481555</v>
+        <v>0.1241134810206301</v>
       </c>
       <c r="T12">
-        <v>0.1341569310481555</v>
+        <v>0.1241134810206301</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.4037948097371</v>
+        <v>5.606595666666666</v>
       </c>
       <c r="H13">
-        <v>5.4037948097371</v>
+        <v>16.819787</v>
       </c>
       <c r="I13">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="J13">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.1169883938852</v>
+        <v>55.51027300000001</v>
       </c>
       <c r="N13">
-        <v>53.1169883938852</v>
+        <v>166.530819</v>
       </c>
       <c r="O13">
-        <v>0.04533225522245957</v>
+        <v>0.043549230010055</v>
       </c>
       <c r="P13">
-        <v>0.04533225522245957</v>
+        <v>0.04354923001005501</v>
       </c>
       <c r="Q13">
-        <v>287.0333061917426</v>
+        <v>311.2236560572837</v>
       </c>
       <c r="R13">
-        <v>287.0333061917426</v>
+        <v>2801.012904515553</v>
       </c>
       <c r="S13">
-        <v>0.01098565656660079</v>
+        <v>0.01034803983200477</v>
       </c>
       <c r="T13">
-        <v>0.01098565656660079</v>
+        <v>0.01034803983200477</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.72823555972871</v>
+        <v>1.773942666666667</v>
       </c>
       <c r="H14">
-        <v>1.72823555972871</v>
+        <v>5.321828</v>
       </c>
       <c r="I14">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641542</v>
       </c>
       <c r="J14">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641543</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N14">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O14">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P14">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q14">
-        <v>14.30670409415786</v>
+        <v>18.54666932947511</v>
       </c>
       <c r="R14">
-        <v>14.30670409415786</v>
+        <v>166.920023965276</v>
       </c>
       <c r="S14">
-        <v>0.0005475620229013031</v>
+        <v>0.0006166680110495993</v>
       </c>
       <c r="T14">
-        <v>0.0005475620229013031</v>
+        <v>0.0006166680110495996</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.72823555972871</v>
+        <v>1.773942666666667</v>
       </c>
       <c r="H15">
-        <v>1.72823555972871</v>
+        <v>5.321828</v>
       </c>
       <c r="I15">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641542</v>
       </c>
       <c r="J15">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641543</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N15">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O15">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P15">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q15">
-        <v>283.6174390050297</v>
+        <v>297.0072015172316</v>
       </c>
       <c r="R15">
-        <v>283.6174390050297</v>
+        <v>2673.064813655084</v>
       </c>
       <c r="S15">
-        <v>0.01085492071476456</v>
+        <v>0.009875349421147102</v>
       </c>
       <c r="T15">
-        <v>0.01085492071476456</v>
+        <v>0.009875349421147105</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.72823555972871</v>
+        <v>1.773942666666667</v>
       </c>
       <c r="H16">
-        <v>1.72823555972871</v>
+        <v>5.321828</v>
       </c>
       <c r="I16">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641542</v>
       </c>
       <c r="J16">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641543</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N16">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O16">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P16">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q16">
-        <v>262.5545281486002</v>
+        <v>403.5642896864613</v>
       </c>
       <c r="R16">
-        <v>262.5545281486002</v>
+        <v>3632.078607178152</v>
       </c>
       <c r="S16">
-        <v>0.01004877766456713</v>
+        <v>0.01341832236454919</v>
       </c>
       <c r="T16">
-        <v>0.01004877766456713</v>
+        <v>0.0134183223645492</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.72823555972871</v>
+        <v>1.773942666666667</v>
       </c>
       <c r="H17">
-        <v>1.72823555972871</v>
+        <v>5.321828</v>
       </c>
       <c r="I17">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641542</v>
       </c>
       <c r="J17">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641543</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N17">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O17">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P17">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q17">
-        <v>251.6953273734987</v>
+        <v>262.5108569734875</v>
       </c>
       <c r="R17">
-        <v>251.6953273734987</v>
+        <v>2362.597712761388</v>
       </c>
       <c r="S17">
-        <v>0.009633162306594223</v>
+        <v>0.008728362228979677</v>
       </c>
       <c r="T17">
-        <v>0.009633162306594223</v>
+        <v>0.008728362228979681</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.72823555972871</v>
+        <v>1.773942666666667</v>
       </c>
       <c r="H18">
-        <v>1.72823555972871</v>
+        <v>5.321828</v>
       </c>
       <c r="I18">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641542</v>
       </c>
       <c r="J18">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641543</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N18">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O18">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P18">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q18">
-        <v>1121.046113271938</v>
+        <v>1181.065020875859</v>
       </c>
       <c r="R18">
-        <v>1121.046113271938</v>
+        <v>10629.58518788273</v>
       </c>
       <c r="S18">
-        <v>0.0429059183379272</v>
+        <v>0.03926985511011868</v>
       </c>
       <c r="T18">
-        <v>0.0429059183379272</v>
+        <v>0.03926985511011869</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.72823555972871</v>
+        <v>1.773942666666667</v>
       </c>
       <c r="H19">
-        <v>1.72823555972871</v>
+        <v>5.321828</v>
       </c>
       <c r="I19">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641542</v>
       </c>
       <c r="J19">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641543</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>53.1169883938852</v>
+        <v>55.51027300000001</v>
       </c>
       <c r="N19">
-        <v>53.1169883938852</v>
+        <v>166.530819</v>
       </c>
       <c r="O19">
-        <v>0.04533225522245957</v>
+        <v>0.043549230010055</v>
       </c>
       <c r="P19">
-        <v>0.04533225522245957</v>
+        <v>0.04354923001005501</v>
       </c>
       <c r="Q19">
-        <v>91.79866816800958</v>
+        <v>98.47204171301468</v>
       </c>
       <c r="R19">
-        <v>91.79866816800958</v>
+        <v>886.248375417132</v>
       </c>
       <c r="S19">
-        <v>0.003513420289600222</v>
+        <v>0.003274148960571159</v>
       </c>
       <c r="T19">
-        <v>0.003513420289600222</v>
+        <v>0.003274148960571161</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.09952925420907</v>
+        <v>2.187066</v>
       </c>
       <c r="H20">
-        <v>2.09952925420907</v>
+        <v>6.561198</v>
       </c>
       <c r="I20">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479572</v>
       </c>
       <c r="J20">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479573</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N20">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O20">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P20">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q20">
-        <v>17.38035281585816</v>
+        <v>22.865896776674</v>
       </c>
       <c r="R20">
-        <v>17.38035281585816</v>
+        <v>205.793070990066</v>
       </c>
       <c r="S20">
-        <v>0.0006652001106583206</v>
+        <v>0.0007602802872927514</v>
       </c>
       <c r="T20">
-        <v>0.0006652001106583206</v>
+        <v>0.0007602802872927518</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.09952925420907</v>
+        <v>2.187066</v>
       </c>
       <c r="H21">
-        <v>2.09952925420907</v>
+        <v>6.561198</v>
       </c>
       <c r="I21">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479572</v>
       </c>
       <c r="J21">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479573</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N21">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O21">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P21">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q21">
-        <v>344.5497385138802</v>
+        <v>366.1755052174661</v>
       </c>
       <c r="R21">
-        <v>344.5497385138802</v>
+        <v>3295.579546957194</v>
       </c>
       <c r="S21">
-        <v>0.01318698916040457</v>
+        <v>0.01217516290855915</v>
       </c>
       <c r="T21">
-        <v>0.01318698916040457</v>
+        <v>0.01217516290855915</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.09952925420907</v>
+        <v>2.187066</v>
       </c>
       <c r="H22">
-        <v>2.09952925420907</v>
+        <v>6.561198</v>
       </c>
       <c r="I22">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479572</v>
       </c>
       <c r="J22">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479573</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N22">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O22">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P22">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q22">
-        <v>318.9616771683462</v>
+        <v>497.548062500748</v>
       </c>
       <c r="R22">
-        <v>318.9616771683462</v>
+        <v>4477.932562506732</v>
       </c>
       <c r="S22">
-        <v>0.01220765453935759</v>
+        <v>0.01654323850031144</v>
       </c>
       <c r="T22">
-        <v>0.01220765453935759</v>
+        <v>0.01654323850031144</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.09952925420907</v>
+        <v>2.187066</v>
       </c>
       <c r="H23">
-        <v>2.09952925420907</v>
+        <v>6.561198</v>
       </c>
       <c r="I23">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479572</v>
       </c>
       <c r="J23">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479573</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N23">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O23">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P23">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q23">
-        <v>305.7694884205147</v>
+        <v>323.645504843962</v>
       </c>
       <c r="R23">
-        <v>305.7694884205147</v>
+        <v>2912.809543595657</v>
       </c>
       <c r="S23">
-        <v>0.01170274848204925</v>
+        <v>0.0107610604476614</v>
       </c>
       <c r="T23">
-        <v>0.01170274848204925</v>
+        <v>0.01076106044766141</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.09952925420907</v>
+        <v>2.187066</v>
       </c>
       <c r="H24">
-        <v>2.09952925420907</v>
+        <v>6.561198</v>
       </c>
       <c r="I24">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479572</v>
       </c>
       <c r="J24">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479573</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N24">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O24">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P24">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q24">
-        <v>1361.891379263876</v>
+        <v>1456.116479683418</v>
       </c>
       <c r="R24">
-        <v>1361.891379263876</v>
+        <v>13105.04831715076</v>
       </c>
       <c r="S24">
-        <v>0.05212381507953941</v>
+        <v>0.04841518643759258</v>
       </c>
       <c r="T24">
-        <v>0.05212381507953941</v>
+        <v>0.04841518643759259</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.09952925420907</v>
+        <v>2.187066</v>
       </c>
       <c r="H25">
-        <v>2.09952925420907</v>
+        <v>6.561198</v>
       </c>
       <c r="I25">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479572</v>
       </c>
       <c r="J25">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479573</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>53.1169883938852</v>
+        <v>55.51027300000001</v>
       </c>
       <c r="N25">
-        <v>53.1169883938852</v>
+        <v>166.530819</v>
       </c>
       <c r="O25">
-        <v>0.04533225522245957</v>
+        <v>0.043549230010055</v>
       </c>
       <c r="P25">
-        <v>0.04533225522245957</v>
+        <v>0.04354923001005501</v>
       </c>
       <c r="Q25">
-        <v>111.5206710284456</v>
+        <v>121.404630729018</v>
       </c>
       <c r="R25">
-        <v>111.5206710284456</v>
+        <v>1092.641676561162</v>
       </c>
       <c r="S25">
-        <v>0.004268242624000459</v>
+        <v>0.004036646733378375</v>
       </c>
       <c r="T25">
-        <v>0.004268242624000459</v>
+        <v>0.004036646733378376</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.44801918300207</v>
+        <v>2.472614</v>
       </c>
       <c r="H26">
-        <v>2.44801918300207</v>
+        <v>7.417842</v>
       </c>
       <c r="I26">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="J26">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N26">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O26">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P26">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q26">
-        <v>20.26522708138839</v>
+        <v>25.85131701217933</v>
       </c>
       <c r="R26">
-        <v>20.26522708138839</v>
+        <v>232.661853109614</v>
       </c>
       <c r="S26">
-        <v>0.0007756132133725016</v>
+        <v>0.0008595441025941053</v>
       </c>
       <c r="T26">
-        <v>0.0007756132133725016</v>
+        <v>0.0008595441025941055</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.44801918300207</v>
+        <v>2.472614</v>
       </c>
       <c r="H27">
-        <v>2.44801918300207</v>
+        <v>7.417842</v>
       </c>
       <c r="I27">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="J27">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N27">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O27">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P27">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q27">
-        <v>401.7397555615741</v>
+        <v>413.9841599008807</v>
       </c>
       <c r="R27">
-        <v>401.7397555615741</v>
+        <v>3725.857439107926</v>
       </c>
       <c r="S27">
-        <v>0.01537582882733965</v>
+        <v>0.01376477813654644</v>
       </c>
       <c r="T27">
-        <v>0.01537582882733965</v>
+        <v>0.01376477813654644</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.44801918300207</v>
+        <v>2.472614</v>
       </c>
       <c r="H28">
-        <v>2.44801918300207</v>
+        <v>7.417842</v>
       </c>
       <c r="I28">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="J28">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N28">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O28">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P28">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q28">
-        <v>371.9044651486769</v>
+        <v>562.508998362292</v>
       </c>
       <c r="R28">
-        <v>371.9044651486769</v>
+        <v>5062.580985260628</v>
       </c>
       <c r="S28">
-        <v>0.01423393955187718</v>
+        <v>0.01870315899072505</v>
       </c>
       <c r="T28">
-        <v>0.01423393955187718</v>
+        <v>0.01870315899072505</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.44801918300207</v>
+        <v>2.472614</v>
       </c>
       <c r="H29">
-        <v>2.44801918300207</v>
+        <v>7.417842</v>
       </c>
       <c r="I29">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="J29">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N29">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O29">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P29">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q29">
-        <v>356.5225736814673</v>
+        <v>365.9013520004646</v>
       </c>
       <c r="R29">
-        <v>356.5225736814673</v>
+        <v>3293.112168004182</v>
       </c>
       <c r="S29">
-        <v>0.01364522676712944</v>
+        <v>0.01216604744334824</v>
       </c>
       <c r="T29">
-        <v>0.01364522676712944</v>
+        <v>0.01216604744334824</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.44801918300207</v>
+        <v>2.472614</v>
       </c>
       <c r="H30">
-        <v>2.44801918300207</v>
+        <v>7.417842</v>
       </c>
       <c r="I30">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="J30">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N30">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O30">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P30">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q30">
-        <v>1587.944638027474</v>
+        <v>1646.230151854556</v>
       </c>
       <c r="R30">
-        <v>1587.944638027474</v>
+        <v>14816.071366691</v>
       </c>
       <c r="S30">
-        <v>0.06077557573925507</v>
+        <v>0.05473637640482799</v>
       </c>
       <c r="T30">
-        <v>0.06077557573925507</v>
+        <v>0.05473637640482801</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.44801918300207</v>
+        <v>2.472614</v>
       </c>
       <c r="H31">
-        <v>2.44801918300207</v>
+        <v>7.417842</v>
       </c>
       <c r="I31">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="J31">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>53.1169883938852</v>
+        <v>55.51027300000001</v>
       </c>
       <c r="N31">
-        <v>53.1169883938852</v>
+        <v>166.530819</v>
       </c>
       <c r="O31">
-        <v>0.04533225522245957</v>
+        <v>0.043549230010055</v>
       </c>
       <c r="P31">
-        <v>0.04533225522245957</v>
+        <v>0.04354923001005501</v>
       </c>
       <c r="Q31">
-        <v>130.0314065315293</v>
+        <v>137.255478163622</v>
       </c>
       <c r="R31">
-        <v>130.0314065315293</v>
+        <v>1235.299303472598</v>
       </c>
       <c r="S31">
-        <v>0.004976705992694748</v>
+        <v>0.004563679937416446</v>
       </c>
       <c r="T31">
-        <v>0.004976705992694748</v>
+        <v>0.004563679937416447</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>5.67549000880699</v>
+        <v>5.954772000000001</v>
       </c>
       <c r="H32">
-        <v>5.67549000880699</v>
+        <v>17.864316</v>
       </c>
       <c r="I32">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784662</v>
       </c>
       <c r="J32">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784663</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N32">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O32">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P32">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q32">
-        <v>46.98292179458277</v>
+        <v>62.25747274230801</v>
       </c>
       <c r="R32">
-        <v>46.98292179458277</v>
+        <v>560.3172546807721</v>
       </c>
       <c r="S32">
-        <v>0.001798182413667219</v>
+        <v>0.002070031616294539</v>
       </c>
       <c r="T32">
-        <v>0.001798182413667219</v>
+        <v>0.00207003161629454</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>5.67549000880699</v>
+        <v>5.954772000000001</v>
       </c>
       <c r="H33">
-        <v>5.67549000880699</v>
+        <v>17.864316</v>
       </c>
       <c r="I33">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784662</v>
       </c>
       <c r="J33">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784663</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N33">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O33">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P33">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q33">
-        <v>931.3938324756781</v>
+        <v>996.9939844315722</v>
       </c>
       <c r="R33">
-        <v>931.3938324756781</v>
+        <v>8972.94585988415</v>
       </c>
       <c r="S33">
-        <v>0.03564733621885956</v>
+        <v>0.0331495799318935</v>
       </c>
       <c r="T33">
-        <v>0.03564733621885956</v>
+        <v>0.03314957993189351</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>5.67549000880699</v>
+        <v>5.954772000000001</v>
       </c>
       <c r="H34">
-        <v>5.67549000880699</v>
+        <v>17.864316</v>
       </c>
       <c r="I34">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784662</v>
       </c>
       <c r="J34">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784663</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N34">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O34">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P34">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q34">
-        <v>862.223666725343</v>
+        <v>1354.684893475416</v>
       </c>
       <c r="R34">
-        <v>862.223666725343</v>
+        <v>12192.16404127875</v>
       </c>
       <c r="S34">
-        <v>0.03299997903348671</v>
+        <v>0.04504263401789272</v>
       </c>
       <c r="T34">
-        <v>0.03299997903348671</v>
+        <v>0.04504263401789273</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>5.67549000880699</v>
+        <v>5.954772000000001</v>
       </c>
       <c r="H35">
-        <v>5.67549000880699</v>
+        <v>17.864316</v>
       </c>
       <c r="I35">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784662</v>
       </c>
       <c r="J35">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784663</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N35">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O35">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P35">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q35">
-        <v>826.5622748764264</v>
+        <v>881.1966306324041</v>
       </c>
       <c r="R35">
-        <v>826.5622748764264</v>
+        <v>7930.769675691636</v>
       </c>
       <c r="S35">
-        <v>0.03163510675180986</v>
+        <v>0.0292993725127827</v>
       </c>
       <c r="T35">
-        <v>0.03163510675180986</v>
+        <v>0.02929937251278271</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>5.67549000880699</v>
+        <v>5.954772000000001</v>
       </c>
       <c r="H36">
-        <v>5.67549000880699</v>
+        <v>17.864316</v>
       </c>
       <c r="I36">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784662</v>
       </c>
       <c r="J36">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784663</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N36">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O36">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P36">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q36">
-        <v>3681.492363393765</v>
+        <v>3964.599898657557</v>
       </c>
       <c r="R36">
-        <v>3681.492363393765</v>
+        <v>35681.39908791801</v>
       </c>
       <c r="S36">
-        <v>0.1409021527619879</v>
+        <v>0.1318210774495859</v>
       </c>
       <c r="T36">
-        <v>0.1409021527619879</v>
+        <v>0.131821077449586</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>5.67549000880699</v>
+        <v>5.954772000000001</v>
       </c>
       <c r="H37">
-        <v>5.67549000880699</v>
+        <v>17.864316</v>
       </c>
       <c r="I37">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784662</v>
       </c>
       <c r="J37">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784663</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>53.1169883938852</v>
+        <v>55.51027300000001</v>
       </c>
       <c r="N37">
-        <v>53.1169883938852</v>
+        <v>166.530819</v>
       </c>
       <c r="O37">
-        <v>0.04533225522245957</v>
+        <v>0.043549230010055</v>
       </c>
       <c r="P37">
-        <v>0.04533225522245957</v>
+        <v>0.04354923001005501</v>
       </c>
       <c r="Q37">
-        <v>301.4649369274123</v>
+        <v>330.5510193727561</v>
       </c>
       <c r="R37">
-        <v>301.4649369274123</v>
+        <v>2974.959174354804</v>
       </c>
       <c r="S37">
-        <v>0.01153799992027474</v>
+        <v>0.01099066555001679</v>
       </c>
       <c r="T37">
-        <v>0.01153799992027474</v>
+        <v>0.01099066555001679</v>
       </c>
     </row>
   </sheetData>
